--- a/notebooks/ADAMTS15/input/ADAMTS15_individuals.xlsx
+++ b/notebooks/ADAMTS15/input/ADAMTS15_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/ADAMTS15/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641D333C-381D-D744-B4AE-12E68F42FBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6D1654-0245-1D49-98BB-23CDE05238A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="5840" windowWidth="28040" windowHeight="17440" xr2:uid="{323181F9-39A7-9045-8913-121E4DED58DD}"/>
+    <workbookView xWindow="5760" yWindow="4420" windowWidth="28040" windowHeight="17440" xr2:uid="{323181F9-39A7-9045-8913-121E4DED58DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="104">
   <si>
     <t>PMID</t>
   </si>
@@ -330,13 +330,31 @@
   </si>
   <si>
     <t>Absent distal interphalangeal creases</t>
+  </si>
+  <si>
+    <t>HGNC_id</t>
+  </si>
+  <si>
+    <t>gene_symbol</t>
+  </si>
+  <si>
+    <t>CURIE</t>
+  </si>
+  <si>
+    <t>ADAMTS15</t>
+  </si>
+  <si>
+    <t>HGNC:16305</t>
+  </si>
+  <si>
+    <t>optional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -363,6 +381,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -384,11 +417,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,15 +758,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FC475F-2578-C240-99B9-81A3C5684FB0}">
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,115 +785,121 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -867,121 +908,127 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>42</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>47</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>49</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>51</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>53</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>55</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>57</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>59</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>63</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>69</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>71</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>73</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>78</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>80</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>84</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>86</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>88</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>90</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>92</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -997,35 +1044,35 @@
       <c r="F3" t="s">
         <v>27</v>
       </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
       <c r="H3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>96</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>35</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" t="s">
-        <v>46</v>
-      </c>
       <c r="Q3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R3" t="s">
         <v>46</v>
@@ -1040,13 +1087,13 @@
         <v>46</v>
       </c>
       <c r="V3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W3" t="s">
         <v>46</v>
       </c>
       <c r="X3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Y3" t="s">
         <v>46</v>
@@ -1061,7 +1108,7 @@
         <v>46</v>
       </c>
       <c r="AC3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AD3" t="s">
         <v>46</v>
@@ -1070,19 +1117,19 @@
         <v>43</v>
       </c>
       <c r="AF3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH3" t="s">
         <v>18</v>
       </c>
-      <c r="AG3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>43</v>
-      </c>
       <c r="AI3" t="s">
         <v>46</v>
       </c>
       <c r="AJ3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AK3" t="s">
         <v>46</v>
@@ -1091,16 +1138,22 @@
         <v>46</v>
       </c>
       <c r="AM3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AN3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AO3" t="s">
         <v>43</v>
       </c>
+      <c r="AP3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1116,35 +1169,35 @@
       <c r="F4" t="s">
         <v>27</v>
       </c>
+      <c r="G4" t="s">
+        <v>102</v>
+      </c>
       <c r="H4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>96</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>35</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>18</v>
       </c>
-      <c r="O4" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" t="s">
-        <v>46</v>
-      </c>
       <c r="Q4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R4" t="s">
         <v>46</v>
@@ -1162,19 +1215,19 @@
         <v>46</v>
       </c>
       <c r="W4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="X4" t="s">
         <v>46</v>
       </c>
       <c r="Y4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z4" t="s">
         <v>46</v>
       </c>
       <c r="AA4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AB4" t="s">
         <v>46</v>
@@ -1183,34 +1236,34 @@
         <v>43</v>
       </c>
       <c r="AD4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AE4" t="s">
         <v>43</v>
       </c>
       <c r="AF4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH4" t="s">
         <v>18</v>
       </c>
-      <c r="AG4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>43</v>
-      </c>
       <c r="AI4" t="s">
         <v>46</v>
       </c>
       <c r="AJ4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AK4" t="s">
         <v>46</v>
       </c>
       <c r="AL4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AN4" t="s">
         <v>43</v>
@@ -1218,8 +1271,14 @@
       <c r="AO4" t="s">
         <v>43</v>
       </c>
+      <c r="AP4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1235,35 +1294,35 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
+      <c r="G5" t="s">
+        <v>102</v>
+      </c>
       <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="J5" t="s">
         <v>30</v>
       </c>
       <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
         <v>96</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>37</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>36</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>18</v>
       </c>
-      <c r="O5" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" t="s">
-        <v>46</v>
-      </c>
       <c r="Q5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R5" t="s">
         <v>46</v>
@@ -1281,43 +1340,43 @@
         <v>46</v>
       </c>
       <c r="W5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="X5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AA5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC5" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>46</v>
-      </c>
       <c r="AD5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AE5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AF5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH5" t="s">
         <v>18</v>
       </c>
-      <c r="AG5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>46</v>
-      </c>
       <c r="AI5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AJ5" t="s">
         <v>46</v>
@@ -1326,7 +1385,7 @@
         <v>46</v>
       </c>
       <c r="AL5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="s">
         <v>46</v>
@@ -1337,8 +1396,14 @@
       <c r="AO5" t="s">
         <v>46</v>
       </c>
+      <c r="AP5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1354,35 +1419,35 @@
       <c r="F6" t="s">
         <v>27</v>
       </c>
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
       <c r="H6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>31</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>32</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>96</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>39</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>35</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>18</v>
       </c>
-      <c r="O6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" t="s">
-        <v>46</v>
-      </c>
       <c r="Q6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R6" t="s">
         <v>46</v>
@@ -1394,34 +1459,34 @@
         <v>46</v>
       </c>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W6" t="s">
         <v>43</v>
       </c>
       <c r="X6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Y6" t="s">
         <v>43</v>
       </c>
       <c r="Z6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" t="s">
         <v>43</v>
       </c>
       <c r="AB6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC6" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AD6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AE6" t="s">
         <v>43</v>
@@ -1445,19 +1510,25 @@
         <v>43</v>
       </c>
       <c r="AL6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AM6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AN6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AO6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1473,35 +1544,35 @@
       <c r="F7" t="s">
         <v>27</v>
       </c>
+      <c r="G7" t="s">
+        <v>102</v>
+      </c>
       <c r="H7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" t="s">
         <v>33</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>33</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>34</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>96</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>40</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>35</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>18</v>
       </c>
-      <c r="O7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" t="s">
-        <v>46</v>
-      </c>
       <c r="Q7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R7" t="s">
         <v>46</v>
@@ -1513,37 +1584,37 @@
         <v>46</v>
       </c>
       <c r="U7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="W7" t="s">
         <v>43</v>
       </c>
       <c r="X7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Y7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z7" t="s">
         <v>46</v>
       </c>
-      <c r="AA7" s="3" t="s">
-        <v>43</v>
+      <c r="AA7" t="s">
+        <v>46</v>
       </c>
       <c r="AB7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AD7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AE7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AF7" t="s">
         <v>46</v>
@@ -1552,27 +1623,33 @@
         <v>46</v>
       </c>
       <c r="AH7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AJ7" t="s">
         <v>43</v>
       </c>
       <c r="AK7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AL7" t="s">
         <v>43</v>
       </c>
       <c r="AM7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AN7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AO7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>43</v>
       </c>
     </row>
